--- a/微代码.xlsx
+++ b/微代码.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F567D8-CBC5-4094-BB8B-ACB4587CFDB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B593CA-AC36-4F6A-AFCB-26D760D41895}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>微操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,38 @@
   </si>
   <si>
     <t>UIR23         UIR22       UIR21       UIR20          UIR19     UIR18      UIR17       UIR16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIR15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIR7          UIR6          UIR5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIR4           UIR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIR2           UIR1        UIR0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二选一控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WR            RD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转移方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,9 +106,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -357,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,10 +418,55 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
     <mergeCell ref="C1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
